--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Zp3-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Zp3-Egfr.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>0.1818788299733333</v>
+        <v>0.03578230111377778</v>
       </c>
       <c r="R2">
-        <v>1.63690946976</v>
+        <v>0.322040710024</v>
       </c>
       <c r="S2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="T2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
         <v>8.887422784829333</v>
@@ -632,10 +632,10 @@
         <v>79.986805063464</v>
       </c>
       <c r="S3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="T3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,13 +679,13 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
         <v>1.301419990210667</v>
@@ -694,10 +694,10 @@
         <v>11.712779911896</v>
       </c>
       <c r="S4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="T4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
     </row>
   </sheetData>
